--- a/Code/Results/Cases/Case_2_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.114192398456851</v>
+        <v>0.6648458909848785</v>
       </c>
       <c r="C2">
-        <v>0.0849132883403847</v>
+        <v>0.1469525115199595</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07501083974792522</v>
+        <v>0.1125772746831366</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008175268733108175</v>
+        <v>0.002470104542915695</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8460094337443138</v>
+        <v>0.3269720627495758</v>
       </c>
       <c r="L2">
-        <v>0.2466106689166878</v>
+        <v>0.195439465471182</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9008263358322512</v>
+        <v>1.814608252324877</v>
       </c>
       <c r="O2">
-        <v>1.623495978504394</v>
+        <v>3.533118245477112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9718940323930667</v>
+        <v>0.6261141630804445</v>
       </c>
       <c r="C3">
-        <v>0.0851369606311323</v>
+        <v>0.1472037131370421</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06968256020303798</v>
+        <v>0.111892959911799</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008209982571019977</v>
+        <v>0.002472381189778544</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7351532007910322</v>
+        <v>0.2943811997274395</v>
       </c>
       <c r="L3">
-        <v>0.2177700399586797</v>
+        <v>0.1884937971703522</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9437240598664918</v>
+        <v>1.833039586622277</v>
       </c>
       <c r="O3">
-        <v>1.625286799919394</v>
+        <v>3.558713352487473</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8849496432459603</v>
+        <v>0.6025688582830355</v>
       </c>
       <c r="C4">
-        <v>0.08530460830484898</v>
+        <v>0.1473764394070756</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06651034653319599</v>
+        <v>0.1115303277697279</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008232009671447465</v>
+        <v>0.002473854066225555</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6672189773730111</v>
+        <v>0.274411253764967</v>
       </c>
       <c r="L4">
-        <v>0.2002701239838274</v>
+        <v>0.184331455755455</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.971214390192932</v>
+        <v>1.844950367903236</v>
       </c>
       <c r="O4">
-        <v>1.629687158951967</v>
+        <v>3.576197080501672</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.849612396493967</v>
+        <v>0.5930339779926896</v>
       </c>
       <c r="C5">
-        <v>0.08538051517252399</v>
+        <v>0.1474514953062354</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06524136544787851</v>
+        <v>0.1113970457058393</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008241168000867471</v>
+        <v>0.002474473191142673</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6395587936011822</v>
+        <v>0.2662841092043209</v>
       </c>
       <c r="L5">
-        <v>0.1931867208427605</v>
+        <v>0.1826610834216069</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9827001748869648</v>
+        <v>1.84995348090969</v>
       </c>
       <c r="O5">
-        <v>1.632277858387312</v>
+        <v>3.583766527152676</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8437499084850799</v>
+        <v>0.5914543625962665</v>
       </c>
       <c r="C6">
-        <v>0.08539357691078919</v>
+        <v>0.147464240831372</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.065032048895727</v>
+        <v>0.1113757904148329</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008242699815627526</v>
+        <v>0.002474577140401424</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6349669933602229</v>
+        <v>0.2649352673090988</v>
       </c>
       <c r="L6">
-        <v>0.1920132978449658</v>
+        <v>0.1823852810577904</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9846243135420707</v>
+        <v>1.850793266991783</v>
       </c>
       <c r="O6">
-        <v>1.632755288391493</v>
+        <v>3.585050287431756</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8844727132116077</v>
+        <v>0.6024400236685779</v>
       </c>
       <c r="C7">
-        <v>0.08530560132424014</v>
+        <v>0.1473774327071027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0664931381941436</v>
+        <v>0.1115284715647995</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008232132443379099</v>
+        <v>0.002473862339240373</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6668458593812829</v>
+        <v>0.2743016040230515</v>
       </c>
       <c r="L7">
-        <v>0.2001744062740443</v>
+        <v>0.1843088238913566</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9713681525570959</v>
+        <v>1.845017236775988</v>
       </c>
       <c r="O7">
-        <v>1.629718910755017</v>
+        <v>3.576297364126731</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.06503041676271</v>
+        <v>0.6514425557570576</v>
       </c>
       <c r="C8">
-        <v>0.08498409817877217</v>
+        <v>0.1470353005340606</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07315224322788438</v>
+        <v>0.112329394817273</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008187091936272006</v>
+        <v>0.002470873996435944</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8077528338059778</v>
+        <v>0.3157264985513564</v>
       </c>
       <c r="L8">
-        <v>0.2366204335971815</v>
+        <v>0.1930234093019152</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.915374799681187</v>
+        <v>1.8208401448441</v>
       </c>
       <c r="O8">
-        <v>1.623408347115529</v>
+        <v>3.54157647057653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.42318798805303</v>
+        <v>0.749386863770269</v>
       </c>
       <c r="C9">
-        <v>0.08459586972748667</v>
+        <v>0.1465102179588413</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08705977895421313</v>
+        <v>0.1143556909950334</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008104284099112725</v>
+        <v>0.002465606492366814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.085591324397456</v>
+        <v>0.3972692395071249</v>
       </c>
       <c r="L9">
-        <v>0.3099581839322667</v>
+        <v>0.2109219611962345</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.814993103071572</v>
+        <v>1.778138552659412</v>
       </c>
       <c r="O9">
-        <v>1.638766538819141</v>
+        <v>3.487518035668586</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.689862552932766</v>
+        <v>0.8224512922350584</v>
       </c>
       <c r="C10">
-        <v>0.08446107713924889</v>
+        <v>0.1462122212854169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0978847782772938</v>
+        <v>0.1161213665064338</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008046604877466854</v>
+        <v>0.002462094214007186</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.291364363342836</v>
+        <v>0.457350660992347</v>
       </c>
       <c r="L10">
-        <v>0.3652966782525482</v>
+        <v>0.2245634210957377</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7474045027419312</v>
+        <v>1.749632459151938</v>
       </c>
       <c r="O10">
-        <v>1.669223235074099</v>
+        <v>3.456354362015276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.812197243494182</v>
+        <v>0.8559255833357327</v>
       </c>
       <c r="C11">
-        <v>0.08443313065122027</v>
+        <v>0.1460954805178858</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1029622835443398</v>
+        <v>0.1169845967248762</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.000802100377403222</v>
+        <v>0.002460573321988853</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.385505155653277</v>
+        <v>0.4847175171409503</v>
       </c>
       <c r="L11">
-        <v>0.3908636261755305</v>
+        <v>0.2308756516770245</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7180934679857298</v>
+        <v>1.737285874855189</v>
       </c>
       <c r="O11">
-        <v>1.687778206383001</v>
+        <v>3.444034722061133</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.858691124422876</v>
+        <v>0.8686349420553086</v>
       </c>
       <c r="C12">
-        <v>0.08442741260554598</v>
+        <v>0.1460539606656006</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.104908879961922</v>
+        <v>0.1173200896216677</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008011396868476763</v>
+        <v>0.002460008395865355</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.421245575009095</v>
+        <v>0.4950853443176584</v>
       </c>
       <c r="L12">
-        <v>0.4006083385151413</v>
+        <v>0.2332812030024485</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7072095200908901</v>
+        <v>1.732699808629636</v>
       </c>
       <c r="O12">
-        <v>1.695528268386738</v>
+        <v>3.43963662841125</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.848669991311198</v>
+        <v>0.865896281166556</v>
       </c>
       <c r="C13">
-        <v>0.08442842660606686</v>
+        <v>0.1460627834876504</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1044885542085332</v>
+        <v>0.1172474528344942</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008013462054400598</v>
+        <v>0.002460129574170812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.413543929478209</v>
+        <v>0.4928522511627023</v>
       </c>
       <c r="L13">
-        <v>0.3985067269722009</v>
+        <v>0.2327624478458574</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7095438371162022</v>
+        <v>1.733683527270879</v>
       </c>
       <c r="O13">
-        <v>1.69382617108576</v>
+        <v>3.440571956688615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.816018821098538</v>
+        <v>0.8569705251134678</v>
       </c>
       <c r="C14">
-        <v>0.0844325623258193</v>
+        <v>0.1460920109051216</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1031219422002678</v>
+        <v>0.1170120255801059</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008020211675182631</v>
+        <v>0.002460526625131003</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.388443623264351</v>
+        <v>0.4855703954255546</v>
       </c>
       <c r="L14">
-        <v>0.3916640266917852</v>
+        <v>0.2310732527922283</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7171936657637463</v>
+        <v>1.736906786244566</v>
       </c>
       <c r="O14">
-        <v>1.688401019223733</v>
+        <v>3.443667535028283</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.796041622643742</v>
+        <v>0.8515075670225656</v>
       </c>
       <c r="C15">
-        <v>0.08443573117503078</v>
+        <v>0.1461102629554389</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1022880158970807</v>
+        <v>0.1168689396807245</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008024357307733727</v>
+        <v>0.002460771261430521</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.373081308627434</v>
+        <v>0.4811106313602522</v>
       </c>
       <c r="L15">
-        <v>0.3874810890947913</v>
+        <v>0.2300405548868554</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7219077519895265</v>
+        <v>1.738892757855929</v>
       </c>
       <c r="O15">
-        <v>1.685173678227613</v>
+        <v>3.445598450817442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.681890064729657</v>
+        <v>0.8202683763628045</v>
       </c>
       <c r="C16">
-        <v>0.08446358050291636</v>
+        <v>0.1462202276487403</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09755618723927384</v>
+        <v>0.1160661580148563</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.00080482904617454</v>
+        <v>0.002462195150467323</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.285224003728189</v>
+        <v>0.4555628432796937</v>
       </c>
       <c r="L16">
-        <v>0.3636342778648611</v>
+        <v>0.2241530405048735</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.749349695694363</v>
+        <v>1.750451834923183</v>
       </c>
       <c r="O16">
-        <v>1.668109218167956</v>
+        <v>3.457196850497439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612138488358454</v>
+        <v>0.8011643287289303</v>
       </c>
       <c r="C17">
-        <v>0.08448925711552135</v>
+        <v>0.1462924940618038</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09469385829131838</v>
+        <v>0.1155890319815249</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008063133180497006</v>
+        <v>0.002463088310252166</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.231473128589641</v>
+        <v>0.4398988332804947</v>
       </c>
       <c r="L17">
-        <v>0.3491102431630111</v>
+        <v>0.2205684950554598</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7665583633174897</v>
+        <v>1.757702016404563</v>
       </c>
       <c r="O17">
-        <v>1.658877568337914</v>
+        <v>3.464787732538156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.572114165238446</v>
+        <v>0.7901985271647618</v>
       </c>
       <c r="C18">
-        <v>0.08450716234518296</v>
+        <v>0.1463358322824213</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09306182211851777</v>
+        <v>0.1153202520881713</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008071730574025771</v>
+        <v>0.002463609269848444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.200606336075168</v>
+        <v>0.4308926827333153</v>
       </c>
       <c r="L18">
-        <v>0.3407929957237741</v>
+        <v>0.2185168043484964</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7765908579308523</v>
+        <v>1.761930577222858</v>
       </c>
       <c r="O18">
-        <v>1.654007113623834</v>
+        <v>3.469328580370444</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558578298998555</v>
+        <v>0.7864895535597043</v>
       </c>
       <c r="C19">
-        <v>0.08451376158600965</v>
+        <v>0.1463508108646856</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0925116447696368</v>
+        <v>0.1152302190167624</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008074651969306936</v>
+        <v>0.002463786902386392</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.190163407843528</v>
+        <v>0.4278439500186266</v>
       </c>
       <c r="L19">
-        <v>0.3379830118025922</v>
+        <v>0.2178238651433446</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7800105249661868</v>
+        <v>1.763372333200525</v>
       </c>
       <c r="O19">
-        <v>1.652432113316962</v>
+        <v>3.47089604875822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.619553687602888</v>
+        <v>0.8031956800154489</v>
       </c>
       <c r="C20">
-        <v>0.08448619870178931</v>
+        <v>0.146284617869064</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09499706522704443</v>
+        <v>0.11563923824135</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008061546939799568</v>
+        <v>0.002462992483236393</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.237189797273857</v>
+        <v>0.4415659484460832</v>
       </c>
       <c r="L20">
-        <v>0.3506525183188813</v>
+        <v>0.2209490370750586</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7647124844559503</v>
+        <v>1.756924172895333</v>
       </c>
       <c r="O20">
-        <v>1.659814486176401</v>
+        <v>3.463961581296559</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.825604514245754</v>
+        <v>0.8595913359027634</v>
       </c>
       <c r="C21">
-        <v>0.08443121497870365</v>
+        <v>0.1460833533202042</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1035226866714076</v>
+        <v>0.1170809428882045</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008018226801265841</v>
+        <v>0.002460409703288455</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.3958135907925</v>
+        <v>0.4877091324263745</v>
       </c>
       <c r="L21">
-        <v>0.3936721279159485</v>
+        <v>0.2315689972680417</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7149408014432215</v>
+        <v>1.735957612723688</v>
       </c>
       <c r="O21">
-        <v>1.6899744796969</v>
+        <v>3.442751039410723</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.961263112392004</v>
+        <v>0.8966433461434917</v>
       </c>
       <c r="C22">
-        <v>0.08442367077108059</v>
+        <v>0.1459674705272285</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1092346557472652</v>
+        <v>0.1180733334622239</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007990423607557307</v>
+        <v>0.002458785816018447</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.500023400663139</v>
+        <v>0.5178929015096969</v>
       </c>
       <c r="L22">
-        <v>0.4221588645158079</v>
+        <v>0.238598581289736</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6836729124034289</v>
+        <v>1.722775374907734</v>
       </c>
       <c r="O22">
-        <v>1.713928596983322</v>
+        <v>3.430445542661801</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.888761327945019</v>
+        <v>0.8768504530505368</v>
       </c>
       <c r="C23">
-        <v>0.08442507585281334</v>
+        <v>0.1460278930991059</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1061726259801645</v>
+        <v>0.1175390948102191</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008005217500945384</v>
+        <v>0.002459646665745792</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.444350142992704</v>
+        <v>0.5017809983261827</v>
       </c>
       <c r="L23">
-        <v>0.4069187446535523</v>
+        <v>0.2348386626950401</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7002426479951911</v>
+        <v>1.729763338756547</v>
       </c>
       <c r="O23">
-        <v>1.700738958866964</v>
+        <v>3.436870745344493</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.616201038439272</v>
+        <v>0.8022772519410353</v>
       </c>
       <c r="C24">
-        <v>0.08448757162467402</v>
+        <v>0.146288173113998</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09485994328813163</v>
+        <v>0.1156165227762997</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.000806226387900332</v>
+        <v>0.002463035783546622</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.234605182496864</v>
+        <v>0.4408122478295411</v>
       </c>
       <c r="L24">
-        <v>0.3499551540020036</v>
+        <v>0.2207769656391179</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7655465740095391</v>
+        <v>1.757275648005693</v>
       </c>
       <c r="O24">
-        <v>1.659389548218854</v>
+        <v>3.464334533715117</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.325755608939403</v>
+        <v>0.7226946406428567</v>
       </c>
       <c r="C25">
-        <v>0.08467469568629227</v>
+        <v>0.1466367705971336</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08319759082025513</v>
+        <v>0.1137588265504377</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008126115609814378</v>
+        <v>0.002466968412801555</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.010194585838548</v>
+        <v>0.3751783986207329</v>
       </c>
       <c r="L25">
-        <v>0.2898867129755445</v>
+        <v>0.2059934913472858</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.841098782005929</v>
+        <v>1.789186728447358</v>
       </c>
       <c r="O25">
-        <v>1.631417100984919</v>
+        <v>3.500640310129825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6648458909848785</v>
+        <v>1.114192398456879</v>
       </c>
       <c r="C2">
-        <v>0.1469525115199595</v>
+        <v>0.08491328834077905</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1125772746831366</v>
+        <v>0.07501083974795009</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002470104542915695</v>
+        <v>0.0008175268732310083</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3269720627495758</v>
+        <v>0.8460094337443138</v>
       </c>
       <c r="L2">
-        <v>0.195439465471182</v>
+        <v>0.246610668916631</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.814608252324877</v>
+        <v>0.9008263358323152</v>
       </c>
       <c r="O2">
-        <v>3.533118245477112</v>
+        <v>1.623495978504465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6261141630804445</v>
+        <v>0.971894032392953</v>
       </c>
       <c r="C3">
-        <v>0.1472037131370421</v>
+        <v>0.08513696063121401</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.111892959911799</v>
+        <v>0.06968256020304864</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002472381189778544</v>
+        <v>0.0008209982571206494</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2943811997274395</v>
+        <v>0.7351532007910322</v>
       </c>
       <c r="L3">
-        <v>0.1884937971703522</v>
+        <v>0.2177700399585802</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.833039586622277</v>
+        <v>0.9437240598664864</v>
       </c>
       <c r="O3">
-        <v>3.558713352487473</v>
+        <v>1.62528679991938</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6025688582830355</v>
+        <v>0.8849496432460739</v>
       </c>
       <c r="C4">
-        <v>0.1473764394070756</v>
+        <v>0.08530460830422015</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1115303277697279</v>
+        <v>0.0665103465331498</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002473854066225555</v>
+        <v>0.0008232009672624597</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.274411253764967</v>
+        <v>0.6672189773731532</v>
       </c>
       <c r="L4">
-        <v>0.184331455755455</v>
+        <v>0.2002701239838416</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.844950367903236</v>
+        <v>0.9712143901929036</v>
       </c>
       <c r="O4">
-        <v>3.576197080501672</v>
+        <v>1.629687158951896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5930339779926896</v>
+        <v>0.8496123964939954</v>
       </c>
       <c r="C5">
-        <v>0.1474514953062354</v>
+        <v>0.08538051517269807</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1113970457058393</v>
+        <v>0.06524136544791048</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002474473191142673</v>
+        <v>0.0008241168000105213</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2662841092043209</v>
+        <v>0.6395587936012532</v>
       </c>
       <c r="L5">
-        <v>0.1826610834216069</v>
+        <v>0.1931867208428173</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.84995348090969</v>
+        <v>0.9827001748869275</v>
       </c>
       <c r="O5">
-        <v>3.583766527152676</v>
+        <v>1.632277858387397</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5914543625962665</v>
+        <v>0.8437499084851083</v>
       </c>
       <c r="C6">
-        <v>0.147464240831372</v>
+        <v>0.08539357691103078</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1113757904148329</v>
+        <v>0.06503204889573055</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002474577140401424</v>
+        <v>0.0008242699815038937</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2649352673090988</v>
+        <v>0.6349669933602371</v>
       </c>
       <c r="L6">
-        <v>0.1823852810577904</v>
+        <v>0.1920132978449089</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.850793266991783</v>
+        <v>0.9846243135420725</v>
       </c>
       <c r="O6">
-        <v>3.585050287431756</v>
+        <v>1.632755288391493</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6024400236685779</v>
+        <v>0.8844727132116077</v>
       </c>
       <c r="C7">
-        <v>0.1473774327071027</v>
+        <v>0.08530560132446752</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1115284715647995</v>
+        <v>0.06649313819411162</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002473862339240373</v>
+        <v>0.0008232132443378539</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2743016040230515</v>
+        <v>0.6668458593813256</v>
       </c>
       <c r="L7">
-        <v>0.1843088238913566</v>
+        <v>0.2001744062740727</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.845017236775988</v>
+        <v>0.9713681525571509</v>
       </c>
       <c r="O7">
-        <v>3.576297364126731</v>
+        <v>1.629718910755088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6514425557570576</v>
+        <v>1.06503041676271</v>
       </c>
       <c r="C8">
-        <v>0.1470353005340606</v>
+        <v>0.08498409817877572</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.112329394817273</v>
+        <v>0.07315224322786307</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002470873996435944</v>
+        <v>0.0008187091936672198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3157264985513564</v>
+        <v>0.8077528338058357</v>
       </c>
       <c r="L8">
-        <v>0.1930234093019152</v>
+        <v>0.2366204335971815</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.8208401448441</v>
+        <v>0.9153747996812314</v>
       </c>
       <c r="O8">
-        <v>3.54157647057653</v>
+        <v>1.623408347115486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.749386863770269</v>
+        <v>1.423187988052973</v>
       </c>
       <c r="C9">
-        <v>0.1465102179588413</v>
+        <v>0.08459586972739785</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1143556909950334</v>
+        <v>0.087059778954238</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002465606492366814</v>
+        <v>0.0008104284099107043</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3972692395071249</v>
+        <v>1.085591324397512</v>
       </c>
       <c r="L9">
-        <v>0.2109219611962345</v>
+        <v>0.3099581839321957</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.778138552659412</v>
+        <v>0.8149931030715614</v>
       </c>
       <c r="O9">
-        <v>3.487518035668586</v>
+        <v>1.638766538819198</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8224512922350584</v>
+        <v>1.689862552932681</v>
       </c>
       <c r="C10">
-        <v>0.1462122212854169</v>
+        <v>0.08446107713902151</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1161213665064338</v>
+        <v>0.09788477827726538</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002462094214007186</v>
+        <v>0.0008046604877028045</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.457350660992347</v>
+        <v>1.291364363342694</v>
       </c>
       <c r="L10">
-        <v>0.2245634210957377</v>
+        <v>0.3652966782526477</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.749632459151938</v>
+        <v>0.7474045027419258</v>
       </c>
       <c r="O10">
-        <v>3.456354362015276</v>
+        <v>1.669223235074099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8559255833357327</v>
+        <v>1.812197243494154</v>
       </c>
       <c r="C11">
-        <v>0.1460954805178858</v>
+        <v>0.0844331306511279</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1169845967248762</v>
+        <v>0.1029622835443362</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002460573321988853</v>
+        <v>0.0008021003774254175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4847175171409503</v>
+        <v>1.385505155653334</v>
       </c>
       <c r="L11">
-        <v>0.2308756516770245</v>
+        <v>0.3908636261754026</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.737285874855189</v>
+        <v>0.7180934679857209</v>
       </c>
       <c r="O11">
-        <v>3.444034722061133</v>
+        <v>1.687778206382944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8686349420553086</v>
+        <v>1.858691124422876</v>
       </c>
       <c r="C12">
-        <v>0.1460539606656006</v>
+        <v>0.08442741260535769</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1173200896216677</v>
+        <v>0.1049088799619504</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002460008395865355</v>
+        <v>0.0008011396867655396</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4950853443176584</v>
+        <v>1.421245575009124</v>
       </c>
       <c r="L12">
-        <v>0.2332812030024485</v>
+        <v>0.4006083385152266</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.732699808629636</v>
+        <v>0.7072095200908262</v>
       </c>
       <c r="O12">
-        <v>3.43963662841125</v>
+        <v>1.695528268386767</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.865896281166556</v>
+        <v>1.848669991310913</v>
       </c>
       <c r="C13">
-        <v>0.1460627834876504</v>
+        <v>0.08442842660598515</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1172474528344942</v>
+        <v>0.1044885542085439</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002460129574170812</v>
+        <v>0.0008013462054400043</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4928522511627023</v>
+        <v>1.413543929478351</v>
       </c>
       <c r="L13">
-        <v>0.2327624478458574</v>
+        <v>0.3985067269722578</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.733683527270879</v>
+        <v>0.7095438371161862</v>
       </c>
       <c r="O13">
-        <v>3.440571956688615</v>
+        <v>1.69382617108576</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8569705251134678</v>
+        <v>1.816018821098766</v>
       </c>
       <c r="C14">
-        <v>0.1460920109051216</v>
+        <v>0.08443256232628826</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1170120255801059</v>
+        <v>0.1031219422002714</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002460526625131003</v>
+        <v>0.0008020211675172209</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4855703954255546</v>
+        <v>1.388443623264294</v>
       </c>
       <c r="L14">
-        <v>0.2310732527922283</v>
+        <v>0.3916640266917426</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.736906786244566</v>
+        <v>0.7171936657637339</v>
       </c>
       <c r="O14">
-        <v>3.443667535028283</v>
+        <v>1.688401019223761</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8515075670225656</v>
+        <v>1.796041622643884</v>
       </c>
       <c r="C15">
-        <v>0.1461102629554389</v>
+        <v>0.08443573117479986</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1168689396807245</v>
+        <v>0.1022880158970771</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002460771261430521</v>
+        <v>0.0008024357306920527</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4811106313602522</v>
+        <v>1.373081308627434</v>
       </c>
       <c r="L15">
-        <v>0.2300405548868554</v>
+        <v>0.3874810890947629</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.738892757855929</v>
+        <v>0.7219077519894626</v>
       </c>
       <c r="O15">
-        <v>3.445598450817442</v>
+        <v>1.685173678227642</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8202683763628045</v>
+        <v>1.6818900647296</v>
       </c>
       <c r="C16">
-        <v>0.1462202276487403</v>
+        <v>0.08446358050323965</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1160661580148563</v>
+        <v>0.09755618723924542</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002462195150467323</v>
+        <v>0.0008048290461164265</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4555628432796937</v>
+        <v>1.285224003728473</v>
       </c>
       <c r="L16">
-        <v>0.2241530405048735</v>
+        <v>0.363634277864719</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.750451834923183</v>
+        <v>0.7493496956943542</v>
       </c>
       <c r="O16">
-        <v>3.457196850497439</v>
+        <v>1.668109218168041</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8011643287289303</v>
+        <v>1.612138488358539</v>
       </c>
       <c r="C17">
-        <v>0.1462924940618038</v>
+        <v>0.08448925711567767</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1155890319815249</v>
+        <v>0.09469385829133969</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002463088310252166</v>
+        <v>0.0008063133180514409</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4398988332804947</v>
+        <v>1.23147312858967</v>
       </c>
       <c r="L17">
-        <v>0.2205684950554598</v>
+        <v>0.3491102431629258</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.757702016404563</v>
+        <v>0.7665583633174968</v>
       </c>
       <c r="O17">
-        <v>3.464787732538156</v>
+        <v>1.658877568337886</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7901985271647618</v>
+        <v>1.572114165238332</v>
       </c>
       <c r="C18">
-        <v>0.1463358322824213</v>
+        <v>0.08450716234517586</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1153202520881713</v>
+        <v>0.09306182211853198</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002463609269848444</v>
+        <v>0.0008071730573444544</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4308926827333153</v>
+        <v>1.200606336075396</v>
       </c>
       <c r="L18">
-        <v>0.2185168043484964</v>
+        <v>0.3407929957238736</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.761930577222858</v>
+        <v>0.7765908579309215</v>
       </c>
       <c r="O18">
-        <v>3.469328580370444</v>
+        <v>1.654007113623891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7864895535597043</v>
+        <v>1.558578298998668</v>
       </c>
       <c r="C19">
-        <v>0.1463508108646856</v>
+        <v>0.08451376158600254</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1152302190167624</v>
+        <v>0.09251164476967588</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002463786902386392</v>
+        <v>0.0008074651969531353</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4278439500186266</v>
+        <v>1.190163407843613</v>
       </c>
       <c r="L19">
-        <v>0.2178238651433446</v>
+        <v>0.3379830118025922</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.763372333200525</v>
+        <v>0.7800105249661158</v>
       </c>
       <c r="O19">
-        <v>3.47089604875822</v>
+        <v>1.652432113317019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8031956800154489</v>
+        <v>1.61955368760286</v>
       </c>
       <c r="C20">
-        <v>0.146284617869064</v>
+        <v>0.08448619870187457</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.11563923824135</v>
+        <v>0.09499706522705864</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002462992483236393</v>
+        <v>0.0008061546939805431</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4415659484460832</v>
+        <v>1.2371897972738</v>
       </c>
       <c r="L20">
-        <v>0.2209490370750586</v>
+        <v>0.3506525183188387</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.756924172895333</v>
+        <v>0.7647124844559503</v>
       </c>
       <c r="O20">
-        <v>3.463961581296559</v>
+        <v>1.659814486176401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8595913359027634</v>
+        <v>1.82560451424564</v>
       </c>
       <c r="C21">
-        <v>0.1460833533202042</v>
+        <v>0.08443121497838035</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1170809428882045</v>
+        <v>0.1035226866713828</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002460409703288455</v>
+        <v>0.0008018226800676013</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4877091324263745</v>
+        <v>1.39581359079267</v>
       </c>
       <c r="L21">
-        <v>0.2315689972680417</v>
+        <v>0.3936721279159627</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.735957612723688</v>
+        <v>0.7149408014431771</v>
       </c>
       <c r="O21">
-        <v>3.442751039410723</v>
+        <v>1.689974479696986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8966433461434917</v>
+        <v>1.961263112392004</v>
       </c>
       <c r="C22">
-        <v>0.1459674705272285</v>
+        <v>0.08442367077075019</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1180733334622239</v>
+        <v>0.1092346557472794</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002458785816018447</v>
+        <v>0.0007990423607503621</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5178929015096969</v>
+        <v>1.50002340066311</v>
       </c>
       <c r="L22">
-        <v>0.238598581289736</v>
+        <v>0.4221588645157084</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.722775374907734</v>
+        <v>0.6836729124034111</v>
       </c>
       <c r="O22">
-        <v>3.430445542661801</v>
+        <v>1.713928596983294</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8768504530505368</v>
+        <v>1.888761327945275</v>
       </c>
       <c r="C23">
-        <v>0.1460278930991059</v>
+        <v>0.0844250758530336</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1175390948102191</v>
+        <v>0.1061726259801894</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002459646665745792</v>
+        <v>0.0008005217500346788</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5017809983261827</v>
+        <v>1.444350142992761</v>
       </c>
       <c r="L23">
-        <v>0.2348386626950401</v>
+        <v>0.406918744653467</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.729763338756547</v>
+        <v>0.7002426479951858</v>
       </c>
       <c r="O23">
-        <v>3.436870745344493</v>
+        <v>1.700738958866935</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8022772519410353</v>
+        <v>1.616201038439357</v>
       </c>
       <c r="C24">
-        <v>0.146288173113998</v>
+        <v>0.08448757162427256</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1156165227762997</v>
+        <v>0.09485994328816361</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002463035783546622</v>
+        <v>0.0008062263879366376</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4408122478295411</v>
+        <v>1.234605182496864</v>
       </c>
       <c r="L24">
-        <v>0.2207769656391179</v>
+        <v>0.3499551540019894</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.757275648005693</v>
+        <v>0.7655465740095266</v>
       </c>
       <c r="O24">
-        <v>3.464334533715117</v>
+        <v>1.659389548218826</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7226946406428567</v>
+        <v>1.325755608939488</v>
       </c>
       <c r="C25">
-        <v>0.1466367705971336</v>
+        <v>0.08467469568644503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1137588265504377</v>
+        <v>0.08319759082025868</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002466968412801555</v>
+        <v>0.0008126115608820729</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3751783986207329</v>
+        <v>1.010194585838519</v>
       </c>
       <c r="L25">
-        <v>0.2059934913472858</v>
+        <v>0.2898867129754876</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.789186728447358</v>
+        <v>0.8410987820059219</v>
       </c>
       <c r="O25">
-        <v>3.500640310129825</v>
+        <v>1.631417100984891</v>
       </c>
     </row>
   </sheetData>
